--- a/Pesquisa_Amazonia_Legal/MUN-POP-AREA-RESIDUOS.xlsx
+++ b/Pesquisa_Amazonia_Legal/MUN-POP-AREA-RESIDUOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexvlima/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexvlima/Documents/Opiniao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2452BCC5-7CBF-0841-B2D3-B442576D493C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0A622-C573-C644-8A9D-82004768FBC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="2304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="2305">
   <si>
     <t>UF</t>
   </si>
@@ -6932,6 +6932,9 @@
   </si>
   <si>
     <t>RESIDUOS SÓLIDOS POR Km2</t>
+  </si>
+  <si>
+    <t>TESTE</t>
   </si>
 </sst>
 </file>
@@ -7328,10 +7331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I778"/>
+  <dimension ref="A1:J778"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="E566" sqref="E566"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7340,7 +7343,7 @@
     <col min="9" max="9" width="26.19921875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7368,8 +7371,11 @@
       <c r="I1" s="9" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -7397,8 +7403,11 @@
       <c r="I2" s="10">
         <v>3141.9811842833424</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -7426,8 +7435,11 @@
       <c r="I3" s="10">
         <v>1239.1574925711052</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7455,8 +7467,11 @@
       <c r="I4" s="10">
         <v>9067.2173520108445</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -7485,7 +7500,7 @@
         <v>164.54523742624332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -7514,7 +7529,7 @@
         <v>1012.1695086949181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7543,7 +7558,7 @@
         <v>1564.3561643835617</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -7572,7 +7587,7 @@
         <v>8454.460443037975</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -7601,7 +7616,7 @@
         <v>229.53302527860831</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -7630,7 +7645,7 @@
         <v>554.76477683956568</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -7659,7 +7674,7 @@
         <v>260.03733955659277</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -7688,7 +7703,7 @@
         <v>7275.9466069583186</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -7717,7 +7732,7 @@
         <v>2233.5005389867051</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -7746,7 +7761,7 @@
         <v>901.02986958350857</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -7775,7 +7790,7 @@
         <v>4227.2956581667813</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>

--- a/Pesquisa_Amazonia_Legal/MUN-POP-AREA-RESIDUOS.xlsx
+++ b/Pesquisa_Amazonia_Legal/MUN-POP-AREA-RESIDUOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexvlima/Documents/Opiniao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexvlima/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0A622-C573-C644-8A9D-82004768FBC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2452BCC5-7CBF-0841-B2D3-B442576D493C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="2305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="2304">
   <si>
     <t>UF</t>
   </si>
@@ -6932,9 +6932,6 @@
   </si>
   <si>
     <t>RESIDUOS SÓLIDOS POR Km2</t>
-  </si>
-  <si>
-    <t>TESTE</t>
   </si>
 </sst>
 </file>
@@ -7331,10 +7328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J778"/>
+  <dimension ref="A1:I778"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="E566" sqref="E566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7343,7 +7340,7 @@
     <col min="9" max="9" width="26.19921875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7371,11 +7368,8 @@
       <c r="I1" s="9" t="s">
         <v>2303</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -7403,11 +7397,8 @@
       <c r="I2" s="10">
         <v>3141.9811842833424</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -7435,11 +7426,8 @@
       <c r="I3" s="10">
         <v>1239.1574925711052</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7467,11 +7455,8 @@
       <c r="I4" s="10">
         <v>9067.2173520108445</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -7500,7 +7485,7 @@
         <v>164.54523742624332</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -7529,7 +7514,7 @@
         <v>1012.1695086949181</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7558,7 +7543,7 @@
         <v>1564.3561643835617</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -7587,7 +7572,7 @@
         <v>8454.460443037975</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -7616,7 +7601,7 @@
         <v>229.53302527860831</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -7645,7 +7630,7 @@
         <v>554.76477683956568</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -7674,7 +7659,7 @@
         <v>260.03733955659277</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -7703,7 +7688,7 @@
         <v>7275.9466069583186</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -7732,7 +7717,7 @@
         <v>2233.5005389867051</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -7761,7 +7746,7 @@
         <v>901.02986958350857</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -7790,7 +7775,7 @@
         <v>4227.2956581667813</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
